--- a/target/test-classes/testdata/hrmstestdata.xlsx
+++ b/target/test-classes/testdata/hrmstestdata.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohel.abbasi\workspace\TestNGFrameworkBatch9\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohel.abbasi\IdeaProjects\hrms\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
+    <sheet name="newdata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>FirstName</t>
   </si>
@@ -87,6 +88,24 @@
   </si>
   <si>
     <t>Yauheniya12345</t>
+  </si>
+  <si>
+    <t>Anusha0909</t>
+  </si>
+  <si>
+    <t>Yanci1010</t>
+  </si>
+  <si>
+    <t>Bryan3838</t>
+  </si>
+  <si>
+    <t>anushatest</t>
+  </si>
+  <si>
+    <t>yancitest</t>
+  </si>
+  <si>
+    <t>bryantest</t>
   </si>
 </sst>
 </file>
@@ -414,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,4 +531,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>